--- a/data/scheduling_DNN/predict/0.1/result12.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result12.xlsx
@@ -570,10 +570,10 @@
         <v>0.952603816986084</v>
       </c>
       <c r="V2" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4894146323204041</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1417309790849686</v>
+        <v>0.2145442217588425</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.334076881408691</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4945240616798401</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5908345580101013</v>
+        <v>0.7048489451408386</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8956248760223389</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5658590197563171</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07677500694990158</v>
+        <v>0.1087455227971077</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8877480030059814</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4956277012825012</v>
       </c>
       <c r="W5" t="n">
-        <v>0.110652893781662</v>
+        <v>0.1537583321332932</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.904541015625</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5640900135040283</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1238552033901215</v>
+        <v>0.1159068867564201</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8690299987792969</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5644481778144836</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1548429727554321</v>
+        <v>0.09277008473873138</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8919250965118408</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.9304567575454712</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02115424536168575</v>
+        <v>0.001484688953496516</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8653969764709473</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.8847259283065796</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1429475396871567</v>
+        <v>0.0003736083745025098</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9151208400726318</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.8814399838447571</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03619453310966492</v>
+        <v>0.001134400023147464</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8685071468353271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5315819978713989</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06115972250699997</v>
+        <v>0.1135185584425926</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8527438640594482</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5669183135032654</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1738889664411545</v>
+        <v>0.08169624209403992</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9210989475250244</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4855489730834961</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1190376058220863</v>
+        <v>0.1897037774324417</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9215590953826904</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.9082795977592468</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1765684336423874</v>
+        <v>0.0001763450563885272</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9037859439849854</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9623992443084717</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2755637168884277</v>
+        <v>0.003435519058257341</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8658750057220459</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4952812194824219</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2342208623886108</v>
+        <v>0.1373397558927536</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8640758991241455</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9766054749488831</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1318084001541138</v>
+        <v>0.01266290526837111</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8962569236755371</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.9192591309547424</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1923674046993256</v>
+        <v>0.0005291015258990228</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8587570190429688</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.480340838432312</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05434191599488258</v>
+        <v>0.1431988030672073</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8615858554840088</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4771468639373779</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05462729558348656</v>
+        <v>0.1477933377027512</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8600749969482422</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5102308988571167</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06524015218019485</v>
+        <v>0.1223908960819244</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.565654993057251</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.8638788461685181</v>
       </c>
       <c r="W22" t="n">
-        <v>9.552669325785246e-06</v>
+        <v>0.08893746882677078</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5287930965423584</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4867283701896667</v>
       </c>
       <c r="W23" t="n">
-        <v>0.008553763851523399</v>
+        <v>0.001769441179931164</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5266461372375488</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.8825344443321228</v>
       </c>
       <c r="W24" t="n">
-        <v>0.002753569977357984</v>
+        <v>0.1266564875841141</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5360538959503174</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9317739009857178</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02470553666353226</v>
+        <v>0.1565943211317062</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5505869388580322</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.8766952753067017</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01312471274286509</v>
+        <v>0.1063466444611549</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.543658971786499</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5315067768096924</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001058391528204083</v>
+        <v>0.0001476758479839191</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5114798545837402</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9284810423851013</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002809196244925261</v>
+        <v>0.1738899946212769</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5384080410003662</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.4947555065155029</v>
       </c>
       <c r="W29" t="n">
-        <v>0.009149279445409775</v>
+        <v>0.001905543729662895</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5418980121612549</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4701379537582397</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01120852772146463</v>
+        <v>0.005149506032466888</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5192830562591553</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.5541191101074219</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0001569105224916711</v>
+        <v>0.001213550684042275</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5432279109954834</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.8806778192520142</v>
       </c>
       <c r="W32" t="n">
-        <v>0.006521080620586872</v>
+        <v>0.1138724386692047</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5152621269226074</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.8770740628242493</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001357604400254786</v>
+        <v>0.130907878279686</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5551590919494629</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4775610566139221</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01038054563105106</v>
+        <v>0.006021454930305481</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5219850540161133</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.9760267734527588</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005367657635360956</v>
+        <v>0.2061538845300674</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5172760486602783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.469770073890686</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0004723537713289261</v>
+        <v>0.002256817650049925</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5162608623504639</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4739331007003784</v>
       </c>
       <c r="W37" t="n">
-        <v>0.006438115146011114</v>
+        <v>0.001791639369912446</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5519909858703613</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.9544679522514343</v>
       </c>
       <c r="W38" t="n">
-        <v>0.008917317725718021</v>
+        <v>0.1619877070188522</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.51957106590271</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.5313786864280701</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001034007756970823</v>
+        <v>0.0001394199061905965</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5194029808044434</v>
       </c>
       <c r="V40" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4698885679244995</v>
       </c>
       <c r="W40" t="n">
-        <v>0.006953578442335129</v>
+        <v>0.002451677108183503</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5227441787719727</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9165861010551453</v>
       </c>
       <c r="W41" t="n">
-        <v>0.008838013745844364</v>
+        <v>0.1551114618778229</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4032289981842041</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5561632513999939</v>
       </c>
       <c r="W42" t="n">
-        <v>0.004895460791885853</v>
+        <v>0.02338888496160507</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4273319244384766</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.9398931264877319</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001372124650515616</v>
+        <v>0.2627189755439758</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.387653112411499</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4750938415527344</v>
       </c>
       <c r="W44" t="n">
-        <v>0.02786963060498238</v>
+        <v>0.007645881269127131</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.408905029296875</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5315567851066589</v>
       </c>
       <c r="W45" t="n">
-        <v>0.009097607806324959</v>
+        <v>0.01504345331341028</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3895759582519531</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5316534638404846</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0896851047873497</v>
+        <v>0.02018601819872856</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4121971130371094</v>
       </c>
       <c r="V47" t="n">
-        <v>0.43533855676651</v>
+        <v>0.4767269492149353</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0005355264293029904</v>
+        <v>0.00416409969329834</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3918960094451904</v>
       </c>
       <c r="V48" t="n">
-        <v>0.390147477388382</v>
+        <v>0.4632799625396729</v>
       </c>
       <c r="W48" t="n">
-        <v>3.057364438063814e-06</v>
+        <v>0.005095668602734804</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3871479034423828</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.8926947712898254</v>
       </c>
       <c r="W49" t="n">
-        <v>0.06845302879810333</v>
+        <v>0.2555776238441467</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3896689414978027</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5338665843009949</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01256853621453047</v>
+        <v>0.02079296112060547</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.386538028717041</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5128727555274963</v>
       </c>
       <c r="W51" t="n">
-        <v>0.002448358107358217</v>
+        <v>0.0159604623913765</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3959648609161377</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9309038519859314</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1825069338083267</v>
+        <v>0.2861597239971161</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4085009098052979</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.9098644256591797</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06252622604370117</v>
+        <v>0.2513653635978699</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3869621753692627</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4727492928504944</v>
       </c>
       <c r="W54" t="n">
-        <v>0.02624637633562088</v>
+        <v>0.007359429728239775</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3857409954071045</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.4700158834457397</v>
       </c>
       <c r="W55" t="n">
-        <v>3.082595867454074e-05</v>
+        <v>0.007102256640791893</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.42215895652771</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4910302758216858</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04075725749135017</v>
+        <v>0.004743258468806744</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3867459297180176</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5065654516220093</v>
       </c>
       <c r="W57" t="n">
-        <v>0.00243898225016892</v>
+        <v>0.01435671746730804</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3957018852233887</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.9132198095321655</v>
       </c>
       <c r="W58" t="n">
-        <v>0.02491983026266098</v>
+        <v>0.267824798822403</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3904459476470947</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4695279002189636</v>
       </c>
       <c r="W59" t="n">
-        <v>0.006444625556468964</v>
+        <v>0.006253955420106649</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3833858966827393</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4873213171958923</v>
       </c>
       <c r="W60" t="n">
-        <v>0.005531379487365484</v>
+        <v>0.01080257166177034</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3862109184265137</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.880492627620697</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02787440828979015</v>
+        <v>0.2443144023418427</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9490561485290527</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.8850113153457642</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2287677377462387</v>
+        <v>0.004101740662008524</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>1.02036190032959</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.9648692607879639</v>
       </c>
       <c r="W63" t="n">
-        <v>0.3414500057697296</v>
+        <v>0.003079432994127274</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8596169948577881</v>
       </c>
       <c r="V64" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5316301584243774</v>
       </c>
       <c r="W64" t="n">
-        <v>0.0888475775718689</v>
+        <v>0.1075753644108772</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8842320442199707</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4759376049041748</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1854623407125473</v>
+        <v>0.1667043417692184</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8879318237304688</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4868509769439697</v>
       </c>
       <c r="W66" t="n">
-        <v>0.06958623975515366</v>
+        <v>0.160865843296051</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8627638816833496</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.4869388341903687</v>
       </c>
       <c r="W67" t="n">
-        <v>0.09944648295640945</v>
+        <v>0.1412444710731506</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8606820106506348</v>
       </c>
       <c r="V68" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.9565256834030151</v>
       </c>
       <c r="W68" t="n">
-        <v>0.01664024777710438</v>
+        <v>0.009186009876430035</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9056169986724854</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4990442991256714</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2006956785917282</v>
+        <v>0.1653013527393341</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8627009391784668</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4705629348754883</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1536898165941238</v>
+        <v>0.1537722200155258</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8650338649749756</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5642713904380798</v>
       </c>
       <c r="W71" t="n">
-        <v>0.06773209571838379</v>
+        <v>0.09045806527137756</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8658709526062012</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4698294997215271</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1847777515649796</v>
+        <v>0.1568488329648972</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8623340129852295</v>
       </c>
       <c r="V73" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9222268462181091</v>
       </c>
       <c r="W73" t="n">
-        <v>0.145601361989975</v>
+        <v>0.003587151411920786</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8941628932952881</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.5315132737159729</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2658741176128387</v>
+        <v>0.1315147429704666</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8654181957244873</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5113149285316467</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1596721112728119</v>
+        <v>0.1253891289234161</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8610179424285889</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9178865551948547</v>
       </c>
       <c r="W76" t="n">
-        <v>0.09507904201745987</v>
+        <v>0.003234039060771465</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8773460388183594</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.8947134613990784</v>
       </c>
       <c r="W77" t="n">
-        <v>0.160645380616188</v>
+        <v>0.0003016273549292237</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8589379787445068</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5126644372940063</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1175579577684402</v>
+        <v>0.1199053674936295</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8573977947235107</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.8746041655540466</v>
       </c>
       <c r="W79" t="n">
-        <v>0.02968305163085461</v>
+        <v>0.0002960592100862414</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8649160861968994</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.8805548548698425</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1470968127250671</v>
+        <v>0.0002445710997562855</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8949320316314697</v>
       </c>
       <c r="V81" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.9166653156280518</v>
       </c>
       <c r="W81" t="n">
-        <v>0.02447321824729443</v>
+        <v>0.0004723356396425515</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5693590641021729</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.4706456065177917</v>
       </c>
       <c r="W82" t="n">
-        <v>0.002699332777410746</v>
+        <v>0.00974434707313776</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5428838729858398</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5661789178848267</v>
       </c>
       <c r="W83" t="n">
-        <v>0.001692682737484574</v>
+        <v>0.0005426591378636658</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5235159397125244</v>
       </c>
       <c r="V84" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5337288379669189</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0003278309595771134</v>
+        <v>0.0001043032898451202</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5218908786773682</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4988160729408264</v>
       </c>
       <c r="W85" t="n">
-        <v>0.00123322254512459</v>
+        <v>0.0005324466619640589</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5189769268035889</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.8813806176185608</v>
       </c>
       <c r="W86" t="n">
-        <v>0.001178406411781907</v>
+        <v>0.131336435675621</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5201320648193359</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.8657270669937134</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01981855556368828</v>
+        <v>0.1194359064102173</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5199019908905029</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4953014254570007</v>
       </c>
       <c r="W88" t="n">
-        <v>0.007035895716398954</v>
+        <v>0.0006051878444850445</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5222599506378174</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.882662832736969</v>
       </c>
       <c r="W89" t="n">
-        <v>0.004068847745656967</v>
+        <v>0.1298902332782745</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5216119289398193</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4706414341926575</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0008940643165260553</v>
+        <v>0.00259799137711525</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5207319259643555</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.476854145526886</v>
       </c>
       <c r="W91" t="n">
-        <v>0.006427540443837643</v>
+        <v>0.001925259595736861</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.6132528781890869</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.580894410610199</v>
       </c>
       <c r="W92" t="n">
-        <v>0.03140944987535477</v>
+        <v>0.001047070370987058</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5233850479125977</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.9872071743011475</v>
       </c>
       <c r="W93" t="n">
-        <v>0.007702560629695654</v>
+        <v>0.2151309698820114</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5228369235992432</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9284308552742004</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01974345929920673</v>
+        <v>0.1645064353942871</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5205650329589844</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4954645037651062</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01516398228704929</v>
+        <v>0.0006300365785136819</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5235052108764648</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.9798845052719116</v>
       </c>
       <c r="W96" t="n">
-        <v>0.00772340502589941</v>
+        <v>0.2082820534706116</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5544438362121582</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5314239263534546</v>
       </c>
       <c r="W97" t="n">
-        <v>0.006898502353578806</v>
+        <v>0.0005299162585288286</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5195891857147217</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.502935528755188</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0003114470455329865</v>
+        <v>0.0002773442829493433</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5229358673095703</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.508054256439209</v>
       </c>
       <c r="W99" t="n">
-        <v>0.004144276492297649</v>
+        <v>0.000221462338231504</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5188920497894287</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4700137972831726</v>
       </c>
       <c r="W100" t="n">
-        <v>0.003976990468800068</v>
+        <v>0.002389083616435528</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4929580688476562</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003824594430625439</v>
+        <v>0.0007195780053734779</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3988430500030518</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.510145366191864</v>
       </c>
       <c r="W102" t="n">
-        <v>0.009479518048465252</v>
+        <v>0.01238820515573025</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.5032210350036621</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9644763469696045</v>
       </c>
       <c r="W103" t="n">
-        <v>0.002019337844103575</v>
+        <v>0.2127564698457718</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4133470058441162</v>
       </c>
       <c r="V104" t="n">
-        <v>0.569115161895752</v>
+        <v>0.9329233765602112</v>
       </c>
       <c r="W104" t="n">
-        <v>0.02426371909677982</v>
+        <v>0.2699595987796783</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4071540832519531</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5094662308692932</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1086940690875053</v>
+        <v>0.0104677751660347</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.4157869815826416</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5541229248046875</v>
       </c>
       <c r="W106" t="n">
-        <v>0.02422410808503628</v>
+        <v>0.0191368330270052</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3899369239807129</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.970067024230957</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1782758682966232</v>
+        <v>0.3365509212017059</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.392441987991333</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5602290630340576</v>
       </c>
       <c r="W108" t="n">
-        <v>0.004257785622030497</v>
+        <v>0.02815250307321548</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4405429363250732</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4876758456230164</v>
       </c>
       <c r="W109" t="n">
-        <v>0.000171204941580072</v>
+        <v>0.002221511211246252</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3952469825744629</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.9157186150550842</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0002637618163134903</v>
+        <v>0.2708907127380371</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3965070247650146</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4802736639976501</v>
       </c>
       <c r="W111" t="n">
-        <v>0.003804781241342425</v>
+        <v>0.007016849704086781</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4063401222229004</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5319405794143677</v>
       </c>
       <c r="W112" t="n">
-        <v>0.106373630464077</v>
+        <v>0.01577547565102577</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3901200294494629</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.9788206219673157</v>
       </c>
       <c r="W113" t="n">
-        <v>0.05229100584983826</v>
+        <v>0.346568375825882</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3878600597381592</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4771902561187744</v>
       </c>
       <c r="W114" t="n">
-        <v>0.07417125254869461</v>
+        <v>0.007979883812367916</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4553508758544922</v>
       </c>
       <c r="V115" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4952805638313293</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0003452149103395641</v>
+        <v>0.001594380009919405</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3905739784240723</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4880357980728149</v>
       </c>
       <c r="W116" t="n">
-        <v>0.004481176380068064</v>
+        <v>0.009498806670308113</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3926560878753662</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4850965142250061</v>
       </c>
       <c r="W117" t="n">
-        <v>0.03218396380543709</v>
+        <v>0.008545232005417347</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3983628749847412</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4947113394737244</v>
       </c>
       <c r="W118" t="n">
-        <v>0.004633041564375162</v>
+        <v>0.009283026680350304</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890290260314941</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.9273765683174133</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0531521700322628</v>
+        <v>0.2898180782794952</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5319405198097229</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02760874480009079</v>
+        <v>0.0167287103831768</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4272909164428711</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.8806738257408142</v>
       </c>
       <c r="W121" t="n">
-        <v>7.627421291545033e-05</v>
+        <v>0.2055560648441315</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8608248233795166</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4716843962669373</v>
       </c>
       <c r="W122" t="n">
-        <v>0.04626305773854256</v>
+        <v>0.1514302790164948</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9513201713562012</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.5038251280784607</v>
       </c>
       <c r="W123" t="n">
-        <v>0.08453343063592911</v>
+        <v>0.2002518177032471</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9143290519714355</v>
       </c>
       <c r="V124" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4804950356483459</v>
       </c>
       <c r="W124" t="n">
-        <v>0.08053480088710785</v>
+        <v>0.1882119476795197</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9267010688781738</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.919677734375</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09069180488586426</v>
+        <v>4.932722731609829e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8740890026092529</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4953269958496094</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1921991556882858</v>
+        <v>0.1434606611728668</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8638429641723633</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4951264262199402</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1506175100803375</v>
+        <v>0.135951891541481</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8481719493865967</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5796043276786804</v>
       </c>
       <c r="W128" t="n">
-        <v>0.03668319061398506</v>
+        <v>0.07212856411933899</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9064929485321045</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.9174614548683167</v>
       </c>
       <c r="W129" t="n">
-        <v>0.07779772579669952</v>
+        <v>0.0001203081337735057</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9031860828399658</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.932043194770813</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1556085348129272</v>
+        <v>0.0008327328832820058</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8651058673858643</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5317482352256775</v>
       </c>
       <c r="W131" t="n">
-        <v>0.09706921130418777</v>
+        <v>0.1111273095011711</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.879828929901123</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4725308418273926</v>
       </c>
       <c r="W132" t="n">
-        <v>0.003980509471148252</v>
+        <v>0.1658917367458344</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9513399600982666</v>
       </c>
       <c r="V133" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4871095418930054</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1598389893770218</v>
+        <v>0.2155098766088486</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8587989807128906</v>
       </c>
       <c r="V134" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.8811761736869812</v>
       </c>
       <c r="W134" t="n">
-        <v>0.01563316769897938</v>
+        <v>0.0005007387371733785</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8632290363311768</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.5315412282943726</v>
       </c>
       <c r="W135" t="n">
-        <v>0.09663885831832886</v>
+        <v>0.1100168004631996</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.862076997756958</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9371700286865234</v>
       </c>
       <c r="W136" t="n">
-        <v>0.141092985868454</v>
+        <v>0.00563896307721734</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9197351932525635</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4706173539161682</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2075790464878082</v>
+        <v>0.2017068266868591</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8655719757080078</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.5081417560577393</v>
       </c>
       <c r="W138" t="n">
-        <v>0.01663957163691521</v>
+        <v>0.1277563571929932</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8670549392700195</v>
       </c>
       <c r="V139" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5536679625511169</v>
       </c>
       <c r="W139" t="n">
-        <v>0.003023565048351884</v>
+        <v>0.09821140021085739</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8746049404144287</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5320160984992981</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1599321514368057</v>
+        <v>0.11736711114645</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.915614128112793</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5226606130599976</v>
       </c>
       <c r="W141" t="n">
-        <v>0.05875379592180252</v>
+        <v>0.1544124633073807</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5312681198120117</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.882598340511322</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01482314895838499</v>
+        <v>0.1234329268336296</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5191421508789062</v>
       </c>
       <c r="V143" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5127125978469849</v>
       </c>
       <c r="W143" t="n">
-        <v>0.001067003118805587</v>
+        <v>4.133915354032069e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5196027755737305</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4919571280479431</v>
       </c>
       <c r="W144" t="n">
-        <v>0.003827234264463186</v>
+        <v>0.0007642818382009864</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5180189609527588</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.8804998993873596</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01579740270972252</v>
+        <v>0.1313924342393875</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5724101066589355</v>
       </c>
       <c r="V146" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4709579944610596</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0004407959058880806</v>
+        <v>0.01029253099113703</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5305349826812744</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4754790663719177</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0233189482241869</v>
+        <v>0.003031153930351138</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5220389366149902</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5068301558494568</v>
       </c>
       <c r="W148" t="n">
-        <v>0.007399126421660185</v>
+        <v>0.0002313070144737139</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5190541744232178</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.9092980623245239</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01141692884266376</v>
+        <v>0.1522902846336365</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5187580585479736</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.9756123423576355</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01102312654256821</v>
+        <v>0.2087158411741257</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5137729644775391</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.480934202671051</v>
       </c>
       <c r="W151" t="n">
-        <v>0.00608724681660533</v>
+        <v>0.001078384229913354</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5403671264648438</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5668792128562927</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01088874228298664</v>
+        <v>0.0007028907421045005</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5196170806884766</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.5315585732460022</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01663625054061413</v>
+        <v>0.0001425992377335206</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5132629871368408</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4703880548477173</v>
       </c>
       <c r="W154" t="n">
-        <v>0.006008063443005085</v>
+        <v>0.001838259864598513</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.519340991973877</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.8793172240257263</v>
       </c>
       <c r="W155" t="n">
-        <v>0.001070580794475973</v>
+        <v>0.1295828819274902</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5175490379333496</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.485076367855072</v>
       </c>
       <c r="W156" t="n">
-        <v>0.003904529148712754</v>
+        <v>0.001054474269039929</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5668008327484131</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4813383221626282</v>
       </c>
       <c r="W157" t="n">
-        <v>0.008328814990818501</v>
+        <v>0.007303840946406126</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5193181037902832</v>
       </c>
       <c r="V158" t="n">
-        <v>0.475897878408432</v>
+        <v>0.5661919116973877</v>
       </c>
       <c r="W158" t="n">
-        <v>0.001885315985418856</v>
+        <v>0.002197153866291046</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5185708999633789</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4789131879806519</v>
       </c>
       <c r="W159" t="n">
-        <v>0.00675673084333539</v>
+        <v>0.00157273409422487</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.519956111907959</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4802114963531494</v>
       </c>
       <c r="W160" t="n">
-        <v>0.002374126575887203</v>
+        <v>0.00157963449601084</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.514286994934082</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5667849183082581</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01206774078309536</v>
+        <v>0.00275603192858398</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3928680419921875</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.8875102996826172</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03099446557462215</v>
+        <v>0.244670957326889</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3900651931762695</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4767348170280457</v>
       </c>
       <c r="W163" t="n">
-        <v>0.03283241391181946</v>
+        <v>0.007511623669415712</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3904728889465332</v>
       </c>
       <c r="V164" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5813139081001282</v>
       </c>
       <c r="W164" t="n">
-        <v>0.1871949732303619</v>
+        <v>0.03642029315233231</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3922960758209229</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.513157069683075</v>
       </c>
       <c r="W165" t="n">
-        <v>0.006100866477936506</v>
+        <v>0.01460738014429808</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3912689685821533</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4729508757591248</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0001619687536731362</v>
+        <v>0.006671933922916651</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3908958435058594</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4794699549674988</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1807830631732941</v>
+        <v>0.007845372892916203</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3913590908050537</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.8933743834495544</v>
       </c>
       <c r="W168" t="n">
-        <v>0.06362414360046387</v>
+        <v>0.2520193457603455</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3933620452880859</v>
       </c>
       <c r="V169" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5674342513084412</v>
       </c>
       <c r="W169" t="n">
-        <v>0.006055735051631927</v>
+        <v>0.03030113317072392</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4011070728302002</v>
       </c>
       <c r="V170" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5316783785820007</v>
       </c>
       <c r="W170" t="n">
-        <v>0.1744504272937775</v>
+        <v>0.01704886555671692</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3898968696594238</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.8801957964897156</v>
       </c>
       <c r="W171" t="n">
-        <v>0.007061151321977377</v>
+        <v>0.2403930425643921</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4136419296264648</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.9761253595352173</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003910710569471121</v>
+        <v>0.3163876235485077</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4084708690643311</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4885274171829224</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0453355647623539</v>
+        <v>0.006409050896763802</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4371118545532227</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.8828078508377075</v>
       </c>
       <c r="W174" t="n">
-        <v>0.03556962311267853</v>
+        <v>0.1986449211835861</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4074561595916748</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4865365028381348</v>
       </c>
       <c r="W175" t="n">
-        <v>0.04559783637523651</v>
+        <v>0.006253700703382492</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4057528972625732</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5265503525733948</v>
       </c>
       <c r="W176" t="n">
-        <v>0.02213062532246113</v>
+        <v>0.01459202542901039</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4089059829711914</v>
       </c>
       <c r="V177" t="n">
-        <v>0.504918098449707</v>
+        <v>0.9191706776618958</v>
       </c>
       <c r="W177" t="n">
-        <v>0.009218326769769192</v>
+        <v>0.2603700459003448</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.393873929977417</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5095138549804688</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02436513639986515</v>
+        <v>0.01337259262800217</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3903629779815674</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.8815327286720276</v>
       </c>
       <c r="W179" t="n">
-        <v>0.002688044449314475</v>
+        <v>0.2412477284669876</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3920438289642334</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.4781777262687683</v>
       </c>
       <c r="W180" t="n">
-        <v>0.004291099961847067</v>
+        <v>0.007419048342853785</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4498839378356934</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.8799523115158081</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0369468666613102</v>
+        <v>0.1849588006734848</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.882655143737793</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.474240243434906</v>
       </c>
       <c r="W182" t="n">
-        <v>0.00415806332603097</v>
+        <v>0.1668027341365814</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8674390316009521</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5651108622550964</v>
       </c>
       <c r="W183" t="n">
-        <v>0.03217634931206703</v>
+        <v>0.0914023220539093</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.893139123916626</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4689652919769287</v>
       </c>
       <c r="W184" t="n">
-        <v>0.07213538885116577</v>
+        <v>0.1799234449863434</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.927448034286499</v>
       </c>
       <c r="V185" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4743229150772095</v>
       </c>
       <c r="W185" t="n">
-        <v>0.09190776199102402</v>
+        <v>0.2053223699331284</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8640480041503906</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.9034146070480347</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1832016855478287</v>
+        <v>0.001549729378893971</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8874120712280273</v>
       </c>
       <c r="V187" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4765677452087402</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1703044176101685</v>
+        <v>0.1687930673360825</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8601458072662354</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.497154712677002</v>
       </c>
       <c r="W188" t="n">
-        <v>0.001913899788632989</v>
+        <v>0.1317625343799591</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9242739677429199</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4866421222686768</v>
       </c>
       <c r="W189" t="n">
-        <v>0.01156118791550398</v>
+        <v>0.191521629691124</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8668110370635986</v>
       </c>
       <c r="V190" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4766595959663391</v>
       </c>
       <c r="W190" t="n">
-        <v>0.003007239196449518</v>
+        <v>0.1522181481122971</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8819270133972168</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.5132573843002319</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1798053383827209</v>
+        <v>0.1359172910451889</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8556089401245117</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5320871472358704</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1764029413461685</v>
+        <v>0.1046663522720337</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9200839996337891</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.87638258934021</v>
       </c>
       <c r="W193" t="n">
-        <v>0.09193573892116547</v>
+        <v>0.001909813261590898</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8683309555053711</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4986844062805176</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1308063268661499</v>
+        <v>0.1366385668516159</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8612608909606934</v>
       </c>
       <c r="V195" t="n">
-        <v>0.473088413476944</v>
+        <v>0.9635573029518127</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1506778746843338</v>
+        <v>0.01046455558389425</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8564550876617432</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.9243848919868469</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1538908034563065</v>
+        <v>0.004614458419382572</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9155089855194092</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5099313855171204</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2760569751262665</v>
+        <v>0.1644931882619858</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8606579303741455</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4943596720695496</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1624261736869812</v>
+        <v>0.1341744214296341</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8633909225463867</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4782710671424866</v>
       </c>
       <c r="W199" t="n">
-        <v>0.06043898314237595</v>
+        <v>0.1483173072338104</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8620779514312744</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5319746732711792</v>
       </c>
       <c r="W200" t="n">
-        <v>0.149895042181015</v>
+        <v>0.1089681759476662</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.930138111114502</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9007049202919006</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1248961016535759</v>
+        <v>0.0008663127082400024</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5199649333953857</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5127086639404297</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01089317072182894</v>
+        <v>5.265344589133747e-05</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5156650543212891</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.8744989037513733</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01171213202178478</v>
+        <v>0.1287617385387421</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5371429920196533</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.53169184923172</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01530842017382383</v>
+        <v>2.971495814563241e-05</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5184080600738525</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4871017932891846</v>
       </c>
       <c r="W205" t="n">
-        <v>0.002432201988995075</v>
+        <v>0.0009800823172554374</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5785598754882812</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4781179428100586</v>
       </c>
       <c r="W206" t="n">
-        <v>0.002236284548416734</v>
+        <v>0.01008858159184456</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5228321552276611</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5658342242240906</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001496784738264978</v>
+        <v>0.001849177991971374</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5154600143432617</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.485204815864563</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00364369829185307</v>
+        <v>0.0009153770515695214</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5183429718017578</v>
       </c>
       <c r="V209" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5130628347396851</v>
       </c>
       <c r="W209" t="n">
-        <v>0.04641250893473625</v>
+        <v>2.787984703900293e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.519568920135498</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4738985896110535</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01117902155965567</v>
+        <v>0.002085779095068574</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5232222080230713</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5076602101325989</v>
       </c>
       <c r="W211" t="n">
-        <v>0.007592324167490005</v>
+        <v>0.0002421757817501202</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5290160179138184</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4803993105888367</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01634441688656807</v>
+        <v>0.0023635842371732</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5199170112609863</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5106335282325745</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01921567507088184</v>
+        <v>8.618305582785979e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5137529373168945</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5095245242118835</v>
       </c>
       <c r="W214" t="n">
-        <v>0.000228150500333868</v>
+        <v>1.787947803677525e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5117549896240234</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4771540760993958</v>
       </c>
       <c r="W215" t="n">
-        <v>0.00332202110439539</v>
+        <v>0.001197223202325404</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5118539333343506</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4989427924156189</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01349343080073595</v>
+        <v>0.0001666975585976616</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5675628185272217</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.8745471835136414</v>
       </c>
       <c r="W217" t="n">
-        <v>0.004019949119538069</v>
+        <v>0.09423939883708954</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.520266056060791</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4708866477012634</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0007792905089445412</v>
+        <v>0.002438325900584459</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5196921825408936</v>
       </c>
       <c r="V219" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5315259099006653</v>
       </c>
       <c r="W219" t="n">
-        <v>0.04222079738974571</v>
+        <v>0.0001400370965711772</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5184299945831299</v>
       </c>
       <c r="V220" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5533161759376526</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01130671054124832</v>
+        <v>0.001217045704834163</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5161139965057373</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4864932894706726</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01174985989928246</v>
+        <v>0.0008773863082751632</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3865790367126465</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4697865843772888</v>
       </c>
       <c r="W222" t="n">
-        <v>0.004699329845607281</v>
+        <v>0.006923495791852474</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3882319927215576</v>
       </c>
       <c r="V223" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.918737530708313</v>
       </c>
       <c r="W223" t="n">
-        <v>0.1834035366773605</v>
+        <v>0.2814361155033112</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.392341136932373</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.8797995448112488</v>
       </c>
       <c r="W224" t="n">
-        <v>0.07883483916521072</v>
+        <v>0.237615704536438</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V225" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.8995378613471985</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1280547976493835</v>
+        <v>0.2603029012680054</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3910350799560547</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.9107224941253662</v>
       </c>
       <c r="W226" t="n">
-        <v>0.07065021246671677</v>
+        <v>0.2700750231742859</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3922219276428223</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.8820001482963562</v>
       </c>
       <c r="W227" t="n">
-        <v>0.00522326398640871</v>
+        <v>0.2398827075958252</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3892111778259277</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.8830352425575256</v>
       </c>
       <c r="W228" t="n">
-        <v>0.00752534531056881</v>
+        <v>0.2438622117042542</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4063241481781006</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.474311888217926</v>
       </c>
       <c r="W229" t="n">
-        <v>0.009529701434075832</v>
+        <v>0.004622332751750946</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3878369331359863</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5128682851791382</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03255745768547058</v>
+        <v>0.01563283987343311</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3924751281738281</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.5668660998344421</v>
       </c>
       <c r="W231" t="n">
-        <v>0.1759314388036728</v>
+        <v>0.03041221015155315</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4192509651184082</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5314428806304932</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01756874471902847</v>
+        <v>0.01258702576160431</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3950631618499756</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.8823981881141663</v>
       </c>
       <c r="W233" t="n">
-        <v>0.05258391425013542</v>
+        <v>0.2374954223632812</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3978090286254883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5020055770874023</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01068825554102659</v>
+        <v>0.01085692085325718</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4466910362243652</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4800922870635986</v>
       </c>
       <c r="W235" t="n">
-        <v>0.03198828175663948</v>
+        <v>0.001115643535740674</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3940329551696777</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.9579903483390808</v>
       </c>
       <c r="W236" t="n">
-        <v>0.02667936310172081</v>
+        <v>0.3180479407310486</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3929460048675537</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5084378123283386</v>
       </c>
       <c r="W237" t="n">
-        <v>0.00240953522734344</v>
+        <v>0.0133383572101593</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3883669376373291</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9326035380363464</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0292986985296011</v>
+        <v>0.2961934804916382</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3886668682098389</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4949682354927063</v>
       </c>
       <c r="W239" t="n">
-        <v>0.05402291938662529</v>
+        <v>0.01129998080432415</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3828158378601074</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5316545963287354</v>
       </c>
       <c r="W240" t="n">
-        <v>0.002854693913832307</v>
+        <v>0.02215297520160675</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4546289443969727</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.8864214420318604</v>
       </c>
       <c r="W241" t="n">
-        <v>0.02928868122398853</v>
+        <v>0.1864447593688965</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8916130065917969</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.867048442363739</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1014784276485443</v>
+        <v>0.0006034178077243268</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8693139553070068</v>
       </c>
       <c r="V243" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4991833567619324</v>
       </c>
       <c r="W243" t="n">
-        <v>0.002783970441669226</v>
+        <v>0.1369966566562653</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.867016077041626</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.8684650659561157</v>
       </c>
       <c r="W244" t="n">
-        <v>0.09062536805868149</v>
+        <v>2.099568973790156e-06</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9662671089172363</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4816212058067322</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1165343597531319</v>
+        <v>0.234881654381752</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8788800239562988</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5315466523170471</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1808692961931229</v>
+        <v>0.1206404715776443</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8716778755187988</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.9959537982940674</v>
       </c>
       <c r="W247" t="n">
-        <v>0.03493126109242439</v>
+        <v>0.01544450502842665</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8707129955291748</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.8758206963539124</v>
       </c>
       <c r="W248" t="n">
-        <v>0.06081563234329224</v>
+        <v>2.608860813779756e-05</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9598050117492676</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4818003177642822</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1673673391342163</v>
+        <v>0.228488489985466</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8751721382141113</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4970806837081909</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2068535387516022</v>
+        <v>0.1429531425237656</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8798120021820068</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.9180620312690735</v>
       </c>
       <c r="W251" t="n">
-        <v>0.003732103621587157</v>
+        <v>0.001463064691051841</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8722288608551025</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5033081769943237</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1902745217084885</v>
+        <v>0.1361024677753448</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>1.004408121109009</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.480138897895813</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2508726119995117</v>
+        <v>0.2748582065105438</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8757600784301758</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9249615669250488</v>
       </c>
       <c r="W254" t="n">
-        <v>0.174298569560051</v>
+        <v>0.00242078653536737</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8689110279083252</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.887662947177887</v>
       </c>
       <c r="W255" t="n">
-        <v>0.05085481330752373</v>
+        <v>0.0003516344877425581</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8707699775695801</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9452086687088013</v>
       </c>
       <c r="W256" t="n">
-        <v>0.04565609991550446</v>
+        <v>0.005541118793189526</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9313678741455078</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.9519004225730896</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2165133208036423</v>
+        <v>0.0004215855442453176</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8635938167572021</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4799220561981201</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1295307576656342</v>
+        <v>0.1472040265798569</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8715140819549561</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.531464159488678</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1012359112501144</v>
+        <v>0.115633949637413</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8653049468994141</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.511610746383667</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1308495253324509</v>
+        <v>0.1250995844602585</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9250729084014893</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4913919568061829</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2206097543239594</v>
+        <v>0.1880791634321213</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5591721534729004</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4767227172851562</v>
       </c>
       <c r="W262" t="n">
-        <v>0.06621158123016357</v>
+        <v>0.006797909736633301</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5300519466400146</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4719048738479614</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0003842688165605068</v>
+        <v>0.003381082089617848</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5166091918945312</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5315818786621094</v>
       </c>
       <c r="W264" t="n">
-        <v>0.002545746508985758</v>
+        <v>0.0002241813490400091</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5137851238250732</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.8794981837272644</v>
       </c>
       <c r="W265" t="n">
-        <v>0.003430598182603717</v>
+        <v>0.1337460428476334</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5742290019989014</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4717950820922852</v>
       </c>
       <c r="W266" t="n">
-        <v>0.006860149092972279</v>
+        <v>0.01049270760267973</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5162088871002197</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5018130540847778</v>
       </c>
       <c r="W267" t="n">
-        <v>0.001871825428679585</v>
+        <v>0.0002072400093311444</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5228688716888428</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.56674724817276</v>
       </c>
       <c r="W268" t="n">
-        <v>0.004701442550867796</v>
+        <v>0.001925311866216362</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.523996114730835</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5654995441436768</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02559518255293369</v>
+        <v>0.001722534652799368</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5222909450531006</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5019765496253967</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0003230182337574661</v>
+        <v>0.0004126746498513967</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5585231781005859</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4853385090827942</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01096320059150457</v>
+        <v>0.005355995614081621</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5330021381378174</v>
       </c>
       <c r="V272" t="n">
-        <v>0.436027318239212</v>
+        <v>0.8796733617782593</v>
       </c>
       <c r="W272" t="n">
-        <v>0.009404115378856659</v>
+        <v>0.1201809346675873</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5223870277404785</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4741173982620239</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01749981753528118</v>
+        <v>0.002329957205802202</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5293920040130615</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5102799534797668</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01666061393916607</v>
+        <v>0.0003652704763226211</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5225329399108887</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4868549108505249</v>
       </c>
       <c r="W275" t="n">
-        <v>0.00267696799710393</v>
+        <v>0.001272921799682081</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5132830142974854</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.9756085276603699</v>
       </c>
       <c r="W276" t="n">
-        <v>0.005049989558756351</v>
+        <v>0.2137448787689209</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5233111381530762</v>
       </c>
       <c r="V277" t="n">
-        <v>0.56818687915802</v>
+        <v>0.9325085282325745</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002013832097873092</v>
+        <v>0.1674425005912781</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5212230682373047</v>
       </c>
       <c r="V278" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5659359693527222</v>
       </c>
       <c r="W278" t="n">
-        <v>0.009484242647886276</v>
+        <v>0.001999243628233671</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5284659862518311</v>
       </c>
       <c r="V279" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4800688028335571</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001626609242521226</v>
+        <v>0.002342287451028824</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5253629684448242</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.4796057939529419</v>
       </c>
       <c r="W280" t="n">
-        <v>0.003523680148646235</v>
+        <v>0.002093719085678458</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5246858596801758</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4801632761955261</v>
       </c>
       <c r="W281" t="n">
-        <v>0.004363574087619781</v>
+        <v>0.001982260495424271</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4657120704650879</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.513139545917511</v>
       </c>
       <c r="W282" t="n">
-        <v>0.02351757325232029</v>
+        <v>0.002249365439638495</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3958520889282227</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4802170395851135</v>
       </c>
       <c r="W283" t="n">
-        <v>0.02466410771012306</v>
+        <v>0.00711744511500001</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3975038528442383</v>
       </c>
       <c r="V284" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4945462346076965</v>
       </c>
       <c r="W284" t="n">
-        <v>0.001469393610022962</v>
+        <v>0.009417223744094372</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3968760967254639</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.9288604855537415</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1274627894163132</v>
+        <v>0.2830073833465576</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3983209133148193</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.8931468725204468</v>
       </c>
       <c r="W286" t="n">
-        <v>0.04871618375182152</v>
+        <v>0.2448527365922928</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3960919380187988</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4744955897331238</v>
       </c>
       <c r="W287" t="n">
-        <v>0.04997628927230835</v>
+        <v>0.006147132720798254</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3974840641021729</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5118593573570251</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01087235286831856</v>
+        <v>0.01308170799165964</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4083430767059326</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5315870046615601</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04535206407308578</v>
+        <v>0.01518906559795141</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3941519260406494</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.9477189183235168</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0002488213358446956</v>
+        <v>0.3064364194869995</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3918838500976562</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.8925643563270569</v>
       </c>
       <c r="W291" t="n">
-        <v>0.06507662683725357</v>
+        <v>0.2506809830665588</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4062309265136719</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.9318528771400452</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01376380119472742</v>
+        <v>0.2762784361839294</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3950259685516357</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5069311857223511</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01187969371676445</v>
+        <v>0.01252277754247189</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3876020908355713</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4794115424156189</v>
       </c>
       <c r="W294" t="n">
-        <v>0.00444430485367775</v>
+        <v>0.008428975008428097</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3975529670715332</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.481681227684021</v>
       </c>
       <c r="W295" t="n">
-        <v>0.04993201047182083</v>
+        <v>0.007077564019709826</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4018018245697021</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4863106608390808</v>
       </c>
       <c r="W296" t="n">
-        <v>0.00325286528095603</v>
+        <v>0.007141743320971727</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973698616027832</v>
       </c>
       <c r="V297" t="n">
-        <v>0.476378470659256</v>
+        <v>0.4805017113685608</v>
       </c>
       <c r="W297" t="n">
-        <v>0.006242360454052687</v>
+        <v>0.006910904310643673</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3951141834259033</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4987942576408386</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001672577811405063</v>
+        <v>0.01074955798685551</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3976459503173828</v>
       </c>
       <c r="V299" t="n">
-        <v>0.458252340555191</v>
+        <v>0.9402758479118347</v>
       </c>
       <c r="W299" t="n">
-        <v>0.003673134604468942</v>
+        <v>0.2944472134113312</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3976891040802002</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.8961450457572937</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06055967137217522</v>
+        <v>0.2484583258628845</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4209117889404297</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.5098867416381836</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002066997811198235</v>
+        <v>0.007916541770100594</v>
       </c>
     </row>
     <row r="302" spans="1:23">
